--- a/dados_teste.xlsx
+++ b/dados_teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/mateusmcf_al_insper_edu_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Marinhero\Documents\Insper\2023\2o Semestre\Ciência dos Dados\Projeto1\Projeto-1-C-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FD9E032-FFBA-4CFD-956E-552AEFABB014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB66D27B-E1D1-41D5-8C90-17DBC1B0DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,19 +1058,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
       <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>47</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>49</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>51</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>52</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>54</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>55</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>57</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>60</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>61</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>63</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>64</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>65</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>66</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>67</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>68</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>69</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>71</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>72</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>73</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>74</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>75</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>76</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>77</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>78</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>79</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>80</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>81</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>82</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>84</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>85</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>86</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>87</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>88</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>89</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>90</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>92</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>93</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>94</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>95</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>96</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>97</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>98</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>99</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>100</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>101</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>102</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>103</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>104</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>105</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>106</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>107</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>108</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>109</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>110</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>111</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>112</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>113</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>114</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>115</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>116</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>117</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>118</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>119</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>120</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>121</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>122</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>123</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>124</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>125</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>126</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>127</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>128</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>129</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>130</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>131</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>132</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>133</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>134</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>135</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>136</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>137</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>138</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>139</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>140</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>141</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>142</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>143</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>144</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>145</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>146</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>147</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>148</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>149</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>150</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>151</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>152</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>153</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>154</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>155</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>156</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>157</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>158</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>159</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>160</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>161</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>162</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>163</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>164</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>165</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>166</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>167</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>168</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>169</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>170</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>171</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>172</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>173</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>174</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>175</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>176</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>177</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>178</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>179</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>180</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>181</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>182</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>183</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>184</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>185</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>186</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>187</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>188</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>189</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>190</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>191</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>192</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>193</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>194</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>195</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>196</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>197</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>198</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>199</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>200</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>201</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>202</v>
       </c>
@@ -2670,16 +2670,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C201">
-        <f>COUNTIF(B2:B185, "Relevante")</f>
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2688,11 +2684,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="bd61af73-7999-4cce-802c-efc978926a1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2911,22 +2908,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bd61af73-7999-4cce-802c-efc978926a1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D02609F2-C32B-401E-9574-3E54EBEB5C6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C420693D-3CB0-4D29-A8A2-A2E80FF931FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D1C7BDE-6441-43F8-B42E-BE485E632B2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D1C7BDE-6441-43F8-B42E-BE485E632B2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bd61af73-7999-4cce-802c-efc978926a1d"/>
+    <ds:schemaRef ds:uri="ee918b65-cae3-47bc-8c3b-c1f3bd6f0a29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C420693D-3CB0-4D29-A8A2-A2E80FF931FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D02609F2-C32B-401E-9574-3E54EBEB5C6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bd61af73-7999-4cce-802c-efc978926a1d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>